--- a/SimonResults.xlsx
+++ b/SimonResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="simonResults" sheetId="1" r:id="rId1"/>
@@ -4988,6 +4988,9 @@
                 <c:pt idx="1">
                   <c:v>334.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>461.0</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>584.0</c:v>
                 </c:pt>
@@ -4996,9 +4999,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>660.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>427.0</c:v>
@@ -5465,7 +5465,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="4"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -5635,7 +5635,7 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>129.0</c:v>
@@ -5993,6 +5993,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>r1 r2 equations generated</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>by ElimLin for DES and CTC2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6095,10 +6133,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CTC!$G$2:$G$10</c:f>
+              <c:f>CTC!$G$2:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>588.0</c:v>
                 </c:pt>
@@ -6122,9 +6160,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4116.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4704.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,10 +6232,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CTC!$H$2:$H$10</c:f>
+              <c:f>CTC!$H$2:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>126.0</c:v>
                 </c:pt>
@@ -6224,9 +6259,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1134.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1302.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6464,6 +6496,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of random P/C pairs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -6557,6 +6619,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of equations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> found</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -17596,7 +17688,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="158" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21375,8 +21467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21487,6 +21579,10 @@
       <c r="B4">
         <v>299</v>
       </c>
+      <c r="D4">
+        <f>334+127</f>
+        <v>461</v>
+      </c>
       <c r="G4">
         <v>1764</v>
       </c>
@@ -21664,11 +21760,11 @@
         <v>711</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -21681,9 +21777,6 @@
       <c r="C8">
         <f>1533+63*2</f>
         <v>1659</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
       </c>
       <c r="G8">
         <v>3822</v>
